--- a/data/pca/factorExposure/factorExposure_2015-06-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01972806713806998</v>
+        <v>0.008096725331480259</v>
       </c>
       <c r="C2">
-        <v>-0.01775376735816727</v>
+        <v>0.0489754390480281</v>
       </c>
       <c r="D2">
-        <v>0.1078466294438075</v>
+        <v>-0.1319262999274096</v>
       </c>
       <c r="E2">
-        <v>0.008800079600142752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02145302092086229</v>
+      </c>
+      <c r="F2">
+        <v>-0.0325145694289346</v>
+      </c>
+      <c r="G2">
+        <v>-0.1288308185066909</v>
+      </c>
+      <c r="H2">
+        <v>-0.03965494734216549</v>
+      </c>
+      <c r="I2">
+        <v>0.06579735306745346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.0007737871189362851</v>
+        <v>-0.0004944007956071549</v>
       </c>
       <c r="C3">
-        <v>-0.003949209278554203</v>
+        <v>0.00297156335940251</v>
       </c>
       <c r="D3">
-        <v>0.000796516499079135</v>
+        <v>-0.001437713612377091</v>
       </c>
       <c r="E3">
-        <v>-0.003977556488779518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.00313029224129826</v>
+      </c>
+      <c r="F3">
+        <v>0.005960913841378831</v>
+      </c>
+      <c r="G3">
+        <v>0.00012093914754509</v>
+      </c>
+      <c r="H3">
+        <v>0.009852550996526373</v>
+      </c>
+      <c r="I3">
+        <v>-0.004238058547535144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04559335802265635</v>
+        <v>0.01780967153734552</v>
       </c>
       <c r="C4">
-        <v>-0.07056756170399235</v>
+        <v>0.1030694042462848</v>
       </c>
       <c r="D4">
-        <v>0.1341944015729161</v>
+        <v>-0.1364086914907036</v>
       </c>
       <c r="E4">
-        <v>0.08083163371506068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.008281767124194428</v>
+      </c>
+      <c r="F4">
+        <v>-0.09303468652135598</v>
+      </c>
+      <c r="G4">
+        <v>-0.009645949244160618</v>
+      </c>
+      <c r="H4">
+        <v>-0.05119445240753537</v>
+      </c>
+      <c r="I4">
+        <v>-0.06995636947375421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02298351350569663</v>
+        <v>0.02567470811595194</v>
       </c>
       <c r="C6">
-        <v>-0.0125890947256488</v>
+        <v>0.0333743149123306</v>
       </c>
       <c r="D6">
-        <v>0.1385602110612593</v>
+        <v>-0.1230352407575307</v>
       </c>
       <c r="E6">
-        <v>0.03395278784075123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.05815213925051077</v>
+      </c>
+      <c r="F6">
+        <v>-0.04663793736462482</v>
+      </c>
+      <c r="G6">
+        <v>-0.006910207869930709</v>
+      </c>
+      <c r="H6">
+        <v>-0.05275705542798687</v>
+      </c>
+      <c r="I6">
+        <v>-0.0158411792019304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0040397744029534</v>
+        <v>0.006297836793538791</v>
       </c>
       <c r="C7">
-        <v>-0.02245585600571119</v>
+        <v>0.03273311219538081</v>
       </c>
       <c r="D7">
-        <v>0.1113667784596648</v>
+        <v>-0.09497120867005671</v>
       </c>
       <c r="E7">
-        <v>0.001513610901481653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.053009007925258</v>
+      </c>
+      <c r="F7">
+        <v>-0.0096556856406078</v>
+      </c>
+      <c r="G7">
+        <v>-0.007081263584992079</v>
+      </c>
+      <c r="H7">
+        <v>-0.0762288026339409</v>
+      </c>
+      <c r="I7">
+        <v>0.004048608070759198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.004325840140599072</v>
+        <v>-0.01095232229191074</v>
       </c>
       <c r="C8">
-        <v>-0.02515611130396802</v>
+        <v>0.03146868860175906</v>
       </c>
       <c r="D8">
-        <v>0.08109139862114302</v>
+        <v>-0.07559264967814293</v>
       </c>
       <c r="E8">
-        <v>0.02466665319757775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03675296623258088</v>
+      </c>
+      <c r="F8">
+        <v>-0.05326646999828524</v>
+      </c>
+      <c r="G8">
+        <v>-0.06107843606191877</v>
+      </c>
+      <c r="H8">
+        <v>0.0008932909892265789</v>
+      </c>
+      <c r="I8">
+        <v>0.01431302406579189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03828840481747843</v>
+        <v>0.01245139495933043</v>
       </c>
       <c r="C9">
-        <v>-0.06002860873548092</v>
+        <v>0.08561867516771</v>
       </c>
       <c r="D9">
-        <v>0.1330734794759104</v>
+        <v>-0.117594806835643</v>
       </c>
       <c r="E9">
-        <v>0.06433638605766044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01115214483410688</v>
+      </c>
+      <c r="F9">
+        <v>-0.06138222525211337</v>
+      </c>
+      <c r="G9">
+        <v>0.005591703302852279</v>
+      </c>
+      <c r="H9">
+        <v>-0.06690178985419332</v>
+      </c>
+      <c r="I9">
+        <v>-0.03367030816893578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1634635494302687</v>
+        <v>0.2366417794632581</v>
       </c>
       <c r="C10">
-        <v>0.1767144195681186</v>
+        <v>-0.09442508818652602</v>
       </c>
       <c r="D10">
-        <v>0.009836415340529711</v>
+        <v>0.002628590321365919</v>
       </c>
       <c r="E10">
-        <v>0.0463325985013508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01444660365169428</v>
+      </c>
+      <c r="F10">
+        <v>-0.04552617919250444</v>
+      </c>
+      <c r="G10">
+        <v>0.0006323638128647328</v>
+      </c>
+      <c r="H10">
+        <v>0.05366606496817953</v>
+      </c>
+      <c r="I10">
+        <v>0.06790945805732547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02033505510578587</v>
+        <v>0.007709735250256954</v>
       </c>
       <c r="C11">
-        <v>-0.03954879297025297</v>
+        <v>0.05207610600861667</v>
       </c>
       <c r="D11">
-        <v>0.04979492786430292</v>
+        <v>-0.04144700924227868</v>
       </c>
       <c r="E11">
-        <v>-0.01619972724814583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01959307315078831</v>
+      </c>
+      <c r="F11">
+        <v>0.01228909134867602</v>
+      </c>
+      <c r="G11">
+        <v>-0.00235344785667439</v>
+      </c>
+      <c r="H11">
+        <v>-0.04507609295729934</v>
+      </c>
+      <c r="I11">
+        <v>-0.05872458720592606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02150794890377641</v>
+        <v>0.008653608300150202</v>
       </c>
       <c r="C12">
-        <v>-0.03950250701246643</v>
+        <v>0.04842048313927005</v>
       </c>
       <c r="D12">
-        <v>0.06260430876871513</v>
+        <v>-0.0474489811948972</v>
       </c>
       <c r="E12">
-        <v>-0.006457180118868207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01560662832561153</v>
+      </c>
+      <c r="F12">
+        <v>0.01572531901999144</v>
+      </c>
+      <c r="G12">
+        <v>0.01218173031705154</v>
+      </c>
+      <c r="H12">
+        <v>-0.07256062185959991</v>
+      </c>
+      <c r="I12">
+        <v>-0.02956520701279564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.004146546108996954</v>
+        <v>-0.005480163879160375</v>
       </c>
       <c r="C13">
-        <v>-0.0241384866640941</v>
+        <v>0.04399050959870354</v>
       </c>
       <c r="D13">
-        <v>0.148302524087864</v>
+        <v>-0.1481077373299062</v>
       </c>
       <c r="E13">
-        <v>0.0322220431752108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03973209762828738</v>
+      </c>
+      <c r="F13">
+        <v>-0.03330746435090366</v>
+      </c>
+      <c r="G13">
+        <v>-0.03146819694271807</v>
+      </c>
+      <c r="H13">
+        <v>-0.06231981040675911</v>
+      </c>
+      <c r="I13">
+        <v>0.09757010066364276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004615323386892798</v>
+        <v>0.0002180047647949906</v>
       </c>
       <c r="C14">
-        <v>-0.01767282746382108</v>
+        <v>0.02767194609148459</v>
       </c>
       <c r="D14">
-        <v>0.09987767631543876</v>
+        <v>-0.1018152178941539</v>
       </c>
       <c r="E14">
-        <v>0.008577707570864184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05042168185245403</v>
+      </c>
+      <c r="F14">
+        <v>-0.03489739435750917</v>
+      </c>
+      <c r="G14">
+        <v>-0.03630963731286727</v>
+      </c>
+      <c r="H14">
+        <v>-0.1222436956089216</v>
+      </c>
+      <c r="I14">
+        <v>0.004434428992844367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001768880828774052</v>
+        <v>-0.001875813716281254</v>
       </c>
       <c r="C15">
-        <v>-0.009863889416318192</v>
+        <v>0.02204004106221242</v>
       </c>
       <c r="D15">
-        <v>0.02819659084245911</v>
+        <v>-0.05760273816931138</v>
       </c>
       <c r="E15">
-        <v>-0.003513216181743386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01049501793262156</v>
+      </c>
+      <c r="F15">
+        <v>-0.006037001959105733</v>
+      </c>
+      <c r="G15">
+        <v>-0.02322668375582759</v>
+      </c>
+      <c r="H15">
+        <v>-0.02688041748174158</v>
+      </c>
+      <c r="I15">
+        <v>-0.02327415054176199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02051765347585825</v>
+        <v>0.008643854886189788</v>
       </c>
       <c r="C16">
-        <v>-0.03724798312263321</v>
+        <v>0.04819023973711498</v>
       </c>
       <c r="D16">
-        <v>0.05579804427497609</v>
+        <v>-0.04332694403835314</v>
       </c>
       <c r="E16">
-        <v>-0.009185732578778204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02163764376146106</v>
+      </c>
+      <c r="F16">
+        <v>0.009114423144990369</v>
+      </c>
+      <c r="G16">
+        <v>0.009446678531355789</v>
+      </c>
+      <c r="H16">
+        <v>-0.0516855623283687</v>
+      </c>
+      <c r="I16">
+        <v>-0.0532795667663656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.005450799576279067</v>
+        <v>4.975816444833758e-05</v>
       </c>
       <c r="C19">
-        <v>-0.01962132191280547</v>
+        <v>0.0185375841045865</v>
       </c>
       <c r="D19">
-        <v>0.1057355234651829</v>
+        <v>-0.06623182620372849</v>
       </c>
       <c r="E19">
-        <v>0.04071980514885117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01112365130666221</v>
+      </c>
+      <c r="F19">
+        <v>-0.01468686301065482</v>
+      </c>
+      <c r="G19">
+        <v>-0.02211362925371864</v>
+      </c>
+      <c r="H19">
+        <v>-0.05991626861538152</v>
+      </c>
+      <c r="I19">
+        <v>0.04319785467977529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.00360443848731019</v>
+        <v>0.004067890466857634</v>
       </c>
       <c r="C20">
-        <v>-0.02403953876165747</v>
+        <v>0.03774314844754019</v>
       </c>
       <c r="D20">
-        <v>0.08897715077421477</v>
+        <v>-0.09340746794286083</v>
       </c>
       <c r="E20">
-        <v>0.03370599763027685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02252795814888481</v>
+      </c>
+      <c r="F20">
+        <v>-0.02955865050539916</v>
+      </c>
+      <c r="G20">
+        <v>-0.004498616399929803</v>
+      </c>
+      <c r="H20">
+        <v>-0.05716556863410561</v>
+      </c>
+      <c r="I20">
+        <v>-0.03556553834268453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.007244833091275654</v>
+        <v>0.003047560906018568</v>
       </c>
       <c r="C21">
-        <v>-0.0300146831652336</v>
+        <v>0.04137655693473657</v>
       </c>
       <c r="D21">
-        <v>0.167279260600773</v>
+        <v>-0.1286005658733859</v>
       </c>
       <c r="E21">
-        <v>0.06861500470866896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03223498582407898</v>
+      </c>
+      <c r="F21">
+        <v>-0.09363701654086898</v>
+      </c>
+      <c r="G21">
+        <v>-0.05250050121365751</v>
+      </c>
+      <c r="H21">
+        <v>-0.1890268640381806</v>
+      </c>
+      <c r="I21">
+        <v>0.1555584411588214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-4.780812849516234e-05</v>
+        <v>-0.01196549200833602</v>
       </c>
       <c r="C22">
-        <v>-0.06151432375134668</v>
+        <v>0.08338410557338044</v>
       </c>
       <c r="D22">
-        <v>0.2385160015217504</v>
+        <v>-0.2654085841895572</v>
       </c>
       <c r="E22">
-        <v>-0.02194517168330447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.05222811737453741</v>
+      </c>
+      <c r="F22">
+        <v>-0.03112022602179694</v>
+      </c>
+      <c r="G22">
+        <v>-0.2792602872244974</v>
+      </c>
+      <c r="H22">
+        <v>0.4477951266058145</v>
+      </c>
+      <c r="I22">
+        <v>-0.1071356357472227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.000305370213814446</v>
+        <v>-0.0116071706687197</v>
       </c>
       <c r="C23">
-        <v>-0.06200501152264275</v>
+        <v>0.08441969583640761</v>
       </c>
       <c r="D23">
-        <v>0.238097691602546</v>
+        <v>-0.2662013147186737</v>
       </c>
       <c r="E23">
-        <v>-0.02179580959918422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04912042890192066</v>
+      </c>
+      <c r="F23">
+        <v>-0.0312132528940595</v>
+      </c>
+      <c r="G23">
+        <v>-0.2791289556933572</v>
+      </c>
+      <c r="H23">
+        <v>0.4473994995690722</v>
+      </c>
+      <c r="I23">
+        <v>-0.1072731616863798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02655609345651918</v>
+        <v>0.008318272091482233</v>
       </c>
       <c r="C24">
-        <v>-0.05573450152131715</v>
+        <v>0.06480597466010364</v>
       </c>
       <c r="D24">
-        <v>0.06881832158798443</v>
+        <v>-0.05050165975363567</v>
       </c>
       <c r="E24">
-        <v>-0.005084729903522839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02966188865102716</v>
+      </c>
+      <c r="F24">
+        <v>0.004938254792427753</v>
+      </c>
+      <c r="G24">
+        <v>-0.00314420694319885</v>
+      </c>
+      <c r="H24">
+        <v>-0.0746632800601499</v>
+      </c>
+      <c r="I24">
+        <v>-0.0479503078066395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02767397913422208</v>
+        <v>0.01189258925609668</v>
       </c>
       <c r="C25">
-        <v>-0.04720230953389833</v>
+        <v>0.05932021608072149</v>
       </c>
       <c r="D25">
-        <v>0.06047390789203624</v>
+        <v>-0.04789531348487396</v>
       </c>
       <c r="E25">
-        <v>-0.001194767497306509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01407600528317265</v>
+      </c>
+      <c r="F25">
+        <v>0.006396168701546394</v>
+      </c>
+      <c r="G25">
+        <v>0.005269197118179029</v>
+      </c>
+      <c r="H25">
+        <v>-0.04192357051096016</v>
+      </c>
+      <c r="I25">
+        <v>-0.0358576898403327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.007953098057454516</v>
+        <v>0.01129032130976582</v>
       </c>
       <c r="C26">
-        <v>-0.01426568351703624</v>
+        <v>0.02234372082370545</v>
       </c>
       <c r="D26">
-        <v>0.08052610260359745</v>
+        <v>-0.06153055077862457</v>
       </c>
       <c r="E26">
-        <v>0.01859425642908484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04082935253629705</v>
+      </c>
+      <c r="F26">
+        <v>-0.04218118017476456</v>
+      </c>
+      <c r="G26">
+        <v>-0.0213569199293703</v>
+      </c>
+      <c r="H26">
+        <v>-0.08780462617022046</v>
+      </c>
+      <c r="I26">
+        <v>0.04167243767849441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2479333300938431</v>
+        <v>0.3198921063706293</v>
       </c>
       <c r="C28">
-        <v>0.2123539517271654</v>
+        <v>-0.09357101264542259</v>
       </c>
       <c r="D28">
-        <v>0.01798834548848568</v>
+        <v>0.009176270632297413</v>
       </c>
       <c r="E28">
-        <v>0.06447285427120099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05190368210574187</v>
+      </c>
+      <c r="F28">
+        <v>-0.04874595013466242</v>
+      </c>
+      <c r="G28">
+        <v>-0.03890264030691107</v>
+      </c>
+      <c r="H28">
+        <v>0.01470721772890244</v>
+      </c>
+      <c r="I28">
+        <v>0.1063916768096149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0008352407050589132</v>
+        <v>-0.001719853704431361</v>
       </c>
       <c r="C29">
-        <v>-0.02123711203672584</v>
+        <v>0.03110297595080772</v>
       </c>
       <c r="D29">
-        <v>0.09721262064854733</v>
+        <v>-0.09832827251957234</v>
       </c>
       <c r="E29">
-        <v>0.01343224688225785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05655524860492896</v>
+      </c>
+      <c r="F29">
+        <v>-0.03735431739632976</v>
+      </c>
+      <c r="G29">
+        <v>-0.02320905935846606</v>
+      </c>
+      <c r="H29">
+        <v>-0.1269399341905237</v>
+      </c>
+      <c r="I29">
+        <v>-0.003733680954588975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02414768938233892</v>
+        <v>0.01371844568366449</v>
       </c>
       <c r="C30">
-        <v>-0.05721218209246748</v>
+        <v>0.0843913816990528</v>
       </c>
       <c r="D30">
-        <v>0.166769038828924</v>
+        <v>-0.1561317016666745</v>
       </c>
       <c r="E30">
-        <v>0.02215570931399313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05540876009462421</v>
+      </c>
+      <c r="F30">
+        <v>-0.03822874229278961</v>
+      </c>
+      <c r="G30">
+        <v>-0.03697362327253508</v>
+      </c>
+      <c r="H30">
+        <v>-0.05316300964142705</v>
+      </c>
+      <c r="I30">
+        <v>-0.07603904926907026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04240107885528177</v>
+        <v>0.008967544239881236</v>
       </c>
       <c r="C31">
-        <v>-0.08393578045410602</v>
+        <v>0.09267319077610019</v>
       </c>
       <c r="D31">
-        <v>0.06918747162105045</v>
+        <v>-0.03956959629786028</v>
       </c>
       <c r="E31">
-        <v>0.01191977683891003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02014016692824155</v>
+      </c>
+      <c r="F31">
+        <v>-0.01690454544315036</v>
+      </c>
+      <c r="G31">
+        <v>-0.01448676809778238</v>
+      </c>
+      <c r="H31">
+        <v>-0.04654748656350498</v>
+      </c>
+      <c r="I31">
+        <v>0.04040360315230539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01988877590472543</v>
+        <v>0.01035883188543719</v>
       </c>
       <c r="C32">
-        <v>-0.0322016958840347</v>
+        <v>0.04614527539257264</v>
       </c>
       <c r="D32">
-        <v>0.1032225637514482</v>
+        <v>-0.1095086698818721</v>
       </c>
       <c r="E32">
-        <v>0.06669871003603621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.004440458654667482</v>
+      </c>
+      <c r="F32">
+        <v>-0.05541098728960291</v>
+      </c>
+      <c r="G32">
+        <v>-0.02982641708947301</v>
+      </c>
+      <c r="H32">
+        <v>-0.0433085867795518</v>
+      </c>
+      <c r="I32">
+        <v>0.07832667850382416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01214760865792143</v>
+        <v>0.004603198435734179</v>
       </c>
       <c r="C33">
-        <v>-0.04070733480682152</v>
+        <v>0.05653071480799272</v>
       </c>
       <c r="D33">
-        <v>0.1391517637550575</v>
+        <v>-0.120480235730499</v>
       </c>
       <c r="E33">
-        <v>0.03740562585163706</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02708725263496721</v>
+      </c>
+      <c r="F33">
+        <v>-0.0283909286429184</v>
+      </c>
+      <c r="G33">
+        <v>-0.01274617230934742</v>
+      </c>
+      <c r="H33">
+        <v>-0.06325172061645687</v>
+      </c>
+      <c r="I33">
+        <v>-0.0001762078377959511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02370973423338062</v>
+        <v>0.005981152826135564</v>
       </c>
       <c r="C34">
-        <v>-0.05829085662225237</v>
+        <v>0.06177002825635797</v>
       </c>
       <c r="D34">
-        <v>0.05147338803686891</v>
+        <v>-0.03050297498524047</v>
       </c>
       <c r="E34">
-        <v>-0.04717771281717479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02953457328500479</v>
+      </c>
+      <c r="F34">
+        <v>0.03796754466914383</v>
+      </c>
+      <c r="G34">
+        <v>-0.0006641579282940963</v>
+      </c>
+      <c r="H34">
+        <v>-0.05930443831080239</v>
+      </c>
+      <c r="I34">
+        <v>-0.02389075481045417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001197832217651731</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.007741982032865541</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02879483159662605</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003415771547753806</v>
+      </c>
+      <c r="F35">
+        <v>-0.01574681876821153</v>
+      </c>
+      <c r="G35">
+        <v>-0.01253410172480351</v>
+      </c>
+      <c r="H35">
+        <v>-0.03563479592694135</v>
+      </c>
+      <c r="I35">
+        <v>-0.0332361884986992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.007381611870923469</v>
+        <v>0.009916275982826045</v>
       </c>
       <c r="C36">
-        <v>-0.005546222435292042</v>
+        <v>0.01767411718245835</v>
       </c>
       <c r="D36">
-        <v>0.08668212413857822</v>
+        <v>-0.0715316493819592</v>
       </c>
       <c r="E36">
-        <v>0.04244389703956823</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02575215889235732</v>
+      </c>
+      <c r="F36">
+        <v>-0.04858449130407588</v>
+      </c>
+      <c r="G36">
+        <v>-0.01640467159687533</v>
+      </c>
+      <c r="H36">
+        <v>-0.06287505527440053</v>
+      </c>
+      <c r="I36">
+        <v>0.02265725223208713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005911092888075845</v>
+        <v>0.01203185071793382</v>
       </c>
       <c r="C38">
-        <v>-0.005816171559398996</v>
+        <v>0.01727971086953413</v>
       </c>
       <c r="D38">
-        <v>0.0856299410677856</v>
+        <v>-0.08517556713146855</v>
       </c>
       <c r="E38">
-        <v>0.01071434575903207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001899257988472931</v>
+      </c>
+      <c r="F38">
+        <v>-0.00130724933211149</v>
+      </c>
+      <c r="G38">
+        <v>-0.03335394550966047</v>
+      </c>
+      <c r="H38">
+        <v>-0.05952404243612069</v>
+      </c>
+      <c r="I38">
+        <v>0.01293480349415862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01762228406820703</v>
+        <v>0.003475410825273066</v>
       </c>
       <c r="C39">
-        <v>-0.05636506961967008</v>
+        <v>0.07415634757922017</v>
       </c>
       <c r="D39">
-        <v>0.1140344527224639</v>
+        <v>-0.0994143561392728</v>
       </c>
       <c r="E39">
-        <v>-0.01907429151327445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05634742451598732</v>
+      </c>
+      <c r="F39">
+        <v>0.003338230591187149</v>
+      </c>
+      <c r="G39">
+        <v>-0.005690311400593178</v>
+      </c>
+      <c r="H39">
+        <v>-0.1050333664611517</v>
+      </c>
+      <c r="I39">
+        <v>-0.07046323832637881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01110173890373938</v>
+        <v>0.01049817993839348</v>
       </c>
       <c r="C40">
-        <v>-0.01553352526652709</v>
+        <v>0.02666952118274153</v>
       </c>
       <c r="D40">
-        <v>0.1205953457904527</v>
+        <v>-0.09708011505045779</v>
       </c>
       <c r="E40">
-        <v>-0.0213182732635853</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04867868547196635</v>
+      </c>
+      <c r="F40">
+        <v>0.02105338112442101</v>
+      </c>
+      <c r="G40">
+        <v>-0.06846343454681787</v>
+      </c>
+      <c r="H40">
+        <v>-0.06733141728354876</v>
+      </c>
+      <c r="I40">
+        <v>0.08100150439238021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.0117542457917446</v>
+        <v>0.01364056448101398</v>
       </c>
       <c r="C41">
-        <v>-0.004813179651848861</v>
+        <v>0.01493218401233514</v>
       </c>
       <c r="D41">
-        <v>0.04996960100409462</v>
+        <v>-0.03967769862003365</v>
       </c>
       <c r="E41">
-        <v>0.03154471510717128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.00874049702123539</v>
+      </c>
+      <c r="F41">
+        <v>-0.02390894906546891</v>
+      </c>
+      <c r="G41">
+        <v>-0.02043452006415418</v>
+      </c>
+      <c r="H41">
+        <v>-0.03987317750119095</v>
+      </c>
+      <c r="I41">
+        <v>0.01811208553796818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005085727923487442</v>
+        <v>0.007516445353186327</v>
       </c>
       <c r="C43">
-        <v>-0.005939822140380431</v>
+        <v>0.01307245844016943</v>
       </c>
       <c r="D43">
-        <v>0.05990235659315253</v>
+        <v>-0.04705076543768024</v>
       </c>
       <c r="E43">
-        <v>0.02082085268776455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.007721734498703046</v>
+      </c>
+      <c r="F43">
+        <v>-0.01948616020878743</v>
+      </c>
+      <c r="G43">
+        <v>-0.02130447050634215</v>
+      </c>
+      <c r="H43">
+        <v>-0.05430198427271584</v>
+      </c>
+      <c r="I43">
+        <v>0.001103071333283199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01803801563351617</v>
+        <v>0.01142849578145592</v>
       </c>
       <c r="C44">
-        <v>-0.02222392625404183</v>
+        <v>0.0439882899400628</v>
       </c>
       <c r="D44">
-        <v>0.1110007450324807</v>
+        <v>-0.1128846024049383</v>
       </c>
       <c r="E44">
-        <v>0.04651400361541753</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04026815206220057</v>
+      </c>
+      <c r="F44">
+        <v>-0.03621366037018615</v>
+      </c>
+      <c r="G44">
+        <v>-0.0338228272424051</v>
+      </c>
+      <c r="H44">
+        <v>-0.04796974118537975</v>
+      </c>
+      <c r="I44">
+        <v>-0.06170662916724483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.006660220166183257</v>
+        <v>-0.001452045645383446</v>
       </c>
       <c r="C46">
-        <v>-0.02764072976031399</v>
+        <v>0.03840140898547927</v>
       </c>
       <c r="D46">
-        <v>0.09107599654028753</v>
+        <v>-0.07840613482786413</v>
       </c>
       <c r="E46">
-        <v>0.01762934591546578</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04169011053600611</v>
+      </c>
+      <c r="F46">
+        <v>-0.03313281500453192</v>
+      </c>
+      <c r="G46">
+        <v>-0.03365988096247675</v>
+      </c>
+      <c r="H46">
+        <v>-0.1285283581895855</v>
+      </c>
+      <c r="I46">
+        <v>-0.01721785828055521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08507384300466565</v>
+        <v>0.03470252647663221</v>
       </c>
       <c r="C47">
-        <v>-0.1041280887156132</v>
+        <v>0.1274581060752033</v>
       </c>
       <c r="D47">
-        <v>0.05881920773477192</v>
+        <v>-0.02782642220874532</v>
       </c>
       <c r="E47">
-        <v>0.02774634054340082</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007718792037412947</v>
+      </c>
+      <c r="F47">
+        <v>0.004121921543764013</v>
+      </c>
+      <c r="G47">
+        <v>0.03018702710321471</v>
+      </c>
+      <c r="H47">
+        <v>-0.06090598335492305</v>
+      </c>
+      <c r="I47">
+        <v>0.09806075174724664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007716054675448199</v>
+        <v>0.01019502274976875</v>
       </c>
       <c r="C48">
-        <v>-0.01559713666826665</v>
+        <v>0.02704613737168849</v>
       </c>
       <c r="D48">
-        <v>0.09369620612065122</v>
+        <v>-0.07521060506618819</v>
       </c>
       <c r="E48">
-        <v>0.0541679912555298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01910527853515813</v>
+      </c>
+      <c r="F48">
+        <v>-0.05994065790392979</v>
+      </c>
+      <c r="G48">
+        <v>-0.03110920459681315</v>
+      </c>
+      <c r="H48">
+        <v>-0.09907538002571244</v>
+      </c>
+      <c r="I48">
+        <v>0.008296248863997263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03972981376917465</v>
+        <v>0.0131895166785773</v>
       </c>
       <c r="C50">
-        <v>-0.06053076345141124</v>
+        <v>0.07536264369237652</v>
       </c>
       <c r="D50">
-        <v>0.06787586444411235</v>
+        <v>-0.04744970347657512</v>
       </c>
       <c r="E50">
-        <v>0.008085860410934884</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01181884282604614</v>
+      </c>
+      <c r="F50">
+        <v>-0.01083698337052971</v>
+      </c>
+      <c r="G50">
+        <v>-0.02556784892746393</v>
+      </c>
+      <c r="H50">
+        <v>-0.03166220972686039</v>
+      </c>
+      <c r="I50">
+        <v>0.0687568950792572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0005192630884619799</v>
+        <v>-0.0002808291062432567</v>
       </c>
       <c r="C51">
-        <v>-0.003017778421483919</v>
+        <v>0.01425169009356685</v>
       </c>
       <c r="D51">
-        <v>0.05765144973598075</v>
+        <v>-0.05882351138920549</v>
       </c>
       <c r="E51">
-        <v>0.0004080345704953346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.04031656133782471</v>
+      </c>
+      <c r="F51">
+        <v>-0.03728865506327843</v>
+      </c>
+      <c r="G51">
+        <v>-0.03186021358955813</v>
+      </c>
+      <c r="H51">
+        <v>-0.03666144765268325</v>
+      </c>
+      <c r="I51">
+        <v>0.0111620005347141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1107462449257445</v>
+        <v>0.05506628988782723</v>
       </c>
       <c r="C53">
-        <v>-0.120414293496644</v>
+        <v>0.1560013818563144</v>
       </c>
       <c r="D53">
-        <v>0.01933985042047042</v>
+        <v>0.01551850448699826</v>
       </c>
       <c r="E53">
-        <v>0.06015288496594405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02870090985469658</v>
+      </c>
+      <c r="F53">
+        <v>-0.05017736161081813</v>
+      </c>
+      <c r="G53">
+        <v>-0.003233495195104664</v>
+      </c>
+      <c r="H53">
+        <v>-0.002044571695025173</v>
+      </c>
+      <c r="I53">
+        <v>0.04141037120681842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01470920102361166</v>
+        <v>0.009048458708177123</v>
       </c>
       <c r="C54">
-        <v>-0.0214575721628515</v>
+        <v>0.03827105427212116</v>
       </c>
       <c r="D54">
-        <v>0.09786565604557525</v>
+        <v>-0.08026980897999801</v>
       </c>
       <c r="E54">
-        <v>0.000653845828512789</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01655057320752545</v>
+      </c>
+      <c r="F54">
+        <v>-0.0006309543798148884</v>
+      </c>
+      <c r="G54">
+        <v>-0.03701509571219919</v>
+      </c>
+      <c r="H54">
+        <v>-0.07842273112610885</v>
+      </c>
+      <c r="I54">
+        <v>-0.003291165619720426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09859631917020106</v>
+        <v>0.04185820462904623</v>
       </c>
       <c r="C55">
-        <v>-0.1012080971211688</v>
+        <v>0.1291898792828442</v>
       </c>
       <c r="D55">
-        <v>0.008454302421908595</v>
+        <v>0.02943147455948809</v>
       </c>
       <c r="E55">
-        <v>0.01302525622074097</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003455698945321367</v>
+      </c>
+      <c r="F55">
+        <v>-0.01491138343281717</v>
+      </c>
+      <c r="G55">
+        <v>-0.01323273477354575</v>
+      </c>
+      <c r="H55">
+        <v>-0.004216920836328617</v>
+      </c>
+      <c r="I55">
+        <v>0.0578524167908824</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1367927316972086</v>
+        <v>0.0573067287687823</v>
       </c>
       <c r="C56">
-        <v>-0.1359804385384088</v>
+        <v>0.1874066198961579</v>
       </c>
       <c r="D56">
-        <v>0.002645139450083931</v>
+        <v>0.02781448139092202</v>
       </c>
       <c r="E56">
-        <v>0.01423077639464876</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03268286507024194</v>
+      </c>
+      <c r="F56">
+        <v>-0.01892292595220384</v>
+      </c>
+      <c r="G56">
+        <v>-0.0588711670208178</v>
+      </c>
+      <c r="H56">
+        <v>0.01176837790075029</v>
+      </c>
+      <c r="I56">
+        <v>0.06972714760317904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.006284118307702498</v>
+        <v>0.003941062969438723</v>
       </c>
       <c r="C58">
-        <v>-0.0119912758425241</v>
+        <v>0.04876106971087778</v>
       </c>
       <c r="D58">
-        <v>0.2127275074830625</v>
+        <v>-0.2753284638777034</v>
       </c>
       <c r="E58">
-        <v>0.08020448489173132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01119656678107466</v>
+      </c>
+      <c r="F58">
+        <v>-0.1114930348194008</v>
+      </c>
+      <c r="G58">
+        <v>-0.1100043439291462</v>
+      </c>
+      <c r="H58">
+        <v>0.1185189794584221</v>
+      </c>
+      <c r="I58">
+        <v>-0.08313747957530754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1737568759764984</v>
+        <v>0.2518917065126253</v>
       </c>
       <c r="C59">
-        <v>0.155288036065514</v>
+        <v>-0.06493148586784749</v>
       </c>
       <c r="D59">
-        <v>0.04502607947216906</v>
+        <v>-0.05856417213656848</v>
       </c>
       <c r="E59">
-        <v>0.03571096569601828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02234312229807301</v>
+      </c>
+      <c r="F59">
+        <v>-0.02508327272275453</v>
+      </c>
+      <c r="G59">
+        <v>-0.01090787778554254</v>
+      </c>
+      <c r="H59">
+        <v>0.003042976445965033</v>
+      </c>
+      <c r="I59">
+        <v>0.07714281816599926</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1933799958499135</v>
+        <v>0.1516478873561208</v>
       </c>
       <c r="C60">
-        <v>-0.09391977890264504</v>
+        <v>0.1731763623816534</v>
       </c>
       <c r="D60">
-        <v>0.1924689773179955</v>
+        <v>-0.09623147098783114</v>
       </c>
       <c r="E60">
-        <v>-0.1719060082184024</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1721384144978773</v>
+      </c>
+      <c r="F60">
+        <v>0.2228343634037692</v>
+      </c>
+      <c r="G60">
+        <v>0.2597124443805288</v>
+      </c>
+      <c r="H60">
+        <v>0.1717068176914273</v>
+      </c>
+      <c r="I60">
+        <v>0.05638896549602038</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.0282972459708902</v>
+        <v>0.0100751808802336</v>
       </c>
       <c r="C61">
-        <v>-0.05225807587633941</v>
+        <v>0.0711948228552068</v>
       </c>
       <c r="D61">
-        <v>0.100212114013127</v>
+        <v>-0.0783649796729872</v>
       </c>
       <c r="E61">
-        <v>-0.008551863943191662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03816272165646003</v>
+      </c>
+      <c r="F61">
+        <v>0.01475262430997595</v>
+      </c>
+      <c r="G61">
+        <v>0.009970202975950483</v>
+      </c>
+      <c r="H61">
+        <v>-0.09203705272480948</v>
+      </c>
+      <c r="I61">
+        <v>-0.0294181784384052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.008715257871472938</v>
+        <v>0.007018293571081391</v>
       </c>
       <c r="C63">
-        <v>-0.02561265585680381</v>
+        <v>0.03401780329444258</v>
       </c>
       <c r="D63">
-        <v>0.09371550383408629</v>
+        <v>-0.06529332737403711</v>
       </c>
       <c r="E63">
-        <v>0.01316289219767963</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05512370934094218</v>
+      </c>
+      <c r="F63">
+        <v>-0.02838699970345263</v>
+      </c>
+      <c r="G63">
+        <v>-0.02162893966015311</v>
+      </c>
+      <c r="H63">
+        <v>-0.06578133699272562</v>
+      </c>
+      <c r="I63">
+        <v>-0.01693600554038084</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05960743157173195</v>
+        <v>0.0193383949576428</v>
       </c>
       <c r="C64">
-        <v>-0.08001129521031987</v>
+        <v>0.105670087421624</v>
       </c>
       <c r="D64">
-        <v>0.03736816317668131</v>
+        <v>-0.02595273757626157</v>
       </c>
       <c r="E64">
-        <v>0.01386304348715467</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02907726892827952</v>
+      </c>
+      <c r="F64">
+        <v>-0.01824127314468018</v>
+      </c>
+      <c r="G64">
+        <v>0.03912547439061607</v>
+      </c>
+      <c r="H64">
+        <v>-0.1111030444434572</v>
+      </c>
+      <c r="I64">
+        <v>-0.06730827460620085</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02636928272428977</v>
+        <v>0.01993546045908499</v>
       </c>
       <c r="C65">
-        <v>-0.01591746418126611</v>
+        <v>0.04203527599153419</v>
       </c>
       <c r="D65">
-        <v>0.1189460175874182</v>
+        <v>-0.1176424346603659</v>
       </c>
       <c r="E65">
-        <v>0.002909122078557438</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04291134892517335</v>
+      </c>
+      <c r="F65">
+        <v>0.008124391340387168</v>
+      </c>
+      <c r="G65">
+        <v>0.02269038520189185</v>
+      </c>
+      <c r="H65">
+        <v>-0.03377043050906598</v>
+      </c>
+      <c r="I65">
+        <v>-0.04435051246175292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02144889804754697</v>
+        <v>0.001628454308153081</v>
       </c>
       <c r="C66">
-        <v>-0.06371203040628197</v>
+        <v>0.09091009440840771</v>
       </c>
       <c r="D66">
-        <v>0.120305486356187</v>
+        <v>-0.1265030931241331</v>
       </c>
       <c r="E66">
-        <v>-0.0205589688126045</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04302937109543239</v>
+      </c>
+      <c r="F66">
+        <v>0.009454266992816027</v>
+      </c>
+      <c r="G66">
+        <v>-0.01857464663402824</v>
+      </c>
+      <c r="H66">
+        <v>-0.06117627960349462</v>
+      </c>
+      <c r="I66">
+        <v>-0.06783966600091298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02587230583781394</v>
+        <v>0.02228733157509274</v>
       </c>
       <c r="C67">
-        <v>-0.01818155289714439</v>
+        <v>0.02963479768825335</v>
       </c>
       <c r="D67">
-        <v>0.03998611405451667</v>
+        <v>-0.03601586017875251</v>
       </c>
       <c r="E67">
-        <v>-0.01529500369647892</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.008621447304116264</v>
+      </c>
+      <c r="F67">
+        <v>0.02826791754102541</v>
+      </c>
+      <c r="G67">
+        <v>-0.01807730686042988</v>
+      </c>
+      <c r="H67">
+        <v>-0.06366753761897109</v>
+      </c>
+      <c r="I67">
+        <v>0.007002272305336174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1983194209797772</v>
+        <v>0.2729784374550772</v>
       </c>
       <c r="C68">
-        <v>0.1651612334533646</v>
+        <v>-0.06791105675852697</v>
       </c>
       <c r="D68">
-        <v>0.03487829942029504</v>
+        <v>-0.03138675918252103</v>
       </c>
       <c r="E68">
-        <v>0.008098332030964217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00393464264024116</v>
+      </c>
+      <c r="F68">
+        <v>-0.02726966858991298</v>
+      </c>
+      <c r="G68">
+        <v>-0.058112634556939</v>
+      </c>
+      <c r="H68">
+        <v>0.0652105461940532</v>
+      </c>
+      <c r="I68">
+        <v>0.08589426338742027</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06278983556731804</v>
+        <v>0.01874538897144804</v>
       </c>
       <c r="C69">
-        <v>-0.1142492775633128</v>
+        <v>0.1185713051239084</v>
       </c>
       <c r="D69">
-        <v>0.08293557303116857</v>
+        <v>-0.03250498086964745</v>
       </c>
       <c r="E69">
-        <v>0.01524266345041917</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008016518752481454</v>
+      </c>
+      <c r="F69">
+        <v>0.006877845149471904</v>
+      </c>
+      <c r="G69">
+        <v>0.0129608611530114</v>
+      </c>
+      <c r="H69">
+        <v>-0.04712308864195142</v>
+      </c>
+      <c r="I69">
+        <v>0.06591579740220904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2054889201981607</v>
+        <v>0.2742729208781352</v>
       </c>
       <c r="C71">
-        <v>0.188824368219641</v>
+        <v>-0.08331161770106044</v>
       </c>
       <c r="D71">
-        <v>0.02417821399233366</v>
+        <v>-0.01738453924281758</v>
       </c>
       <c r="E71">
-        <v>0.01536722476305176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.00181319238552862</v>
+      </c>
+      <c r="F71">
+        <v>-0.02129070481497889</v>
+      </c>
+      <c r="G71">
+        <v>-0.04003747915871091</v>
+      </c>
+      <c r="H71">
+        <v>-0.01081003300797531</v>
+      </c>
+      <c r="I71">
+        <v>0.1143922355714081</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1086395553025766</v>
+        <v>0.05652715629226987</v>
       </c>
       <c r="C72">
-        <v>-0.06990032769100565</v>
+        <v>0.1236006740136693</v>
       </c>
       <c r="D72">
-        <v>0.1049273501421149</v>
+        <v>-0.0607756313054558</v>
       </c>
       <c r="E72">
-        <v>-0.05077851527786851</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07266793768611456</v>
+      </c>
+      <c r="F72">
+        <v>0.0285546424307016</v>
+      </c>
+      <c r="G72">
+        <v>0.02357852150232995</v>
+      </c>
+      <c r="H72">
+        <v>-0.05100806489827342</v>
+      </c>
+      <c r="I72">
+        <v>-0.07698853643380617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1779825282079754</v>
+        <v>0.1384823820014776</v>
       </c>
       <c r="C73">
-        <v>-0.05985679727609874</v>
+        <v>0.1463263898623604</v>
       </c>
       <c r="D73">
-        <v>0.2659743979728527</v>
+        <v>-0.1069577258927522</v>
       </c>
       <c r="E73">
-        <v>-0.2648622245897526</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.303385203767255</v>
+      </c>
+      <c r="F73">
+        <v>0.3268569084185809</v>
+      </c>
+      <c r="G73">
+        <v>0.4305738484670014</v>
+      </c>
+      <c r="H73">
+        <v>0.07531077904387505</v>
+      </c>
+      <c r="I73">
+        <v>-0.001711950615723845</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1131318657300028</v>
+        <v>0.05004380970271224</v>
       </c>
       <c r="C74">
-        <v>-0.112392204275323</v>
+        <v>0.1482924204512427</v>
       </c>
       <c r="D74">
-        <v>-0.0175898852210767</v>
+        <v>0.04068571842145564</v>
       </c>
       <c r="E74">
-        <v>0.04160885201432019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01206870073893379</v>
+      </c>
+      <c r="F74">
+        <v>-0.03658331547146973</v>
+      </c>
+      <c r="G74">
+        <v>0.002534687251477381</v>
+      </c>
+      <c r="H74">
+        <v>0.01657460071392951</v>
+      </c>
+      <c r="I74">
+        <v>0.08205937542008714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2432026269004103</v>
+        <v>0.1117587867513954</v>
       </c>
       <c r="C75">
-        <v>-0.1902322340581507</v>
+        <v>0.2704448072966796</v>
       </c>
       <c r="D75">
-        <v>-0.1068586744353016</v>
+        <v>0.1334500756244253</v>
       </c>
       <c r="E75">
-        <v>-0.01936667304768053</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08820164073449134</v>
+      </c>
+      <c r="F75">
+        <v>0.02790826393938516</v>
+      </c>
+      <c r="G75">
+        <v>-0.1019057223385932</v>
+      </c>
+      <c r="H75">
+        <v>0.007460753668871153</v>
+      </c>
+      <c r="I75">
+        <v>0.05764785708099618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1444764589430544</v>
+        <v>0.06389221842915556</v>
       </c>
       <c r="C76">
-        <v>-0.1344316571894977</v>
+        <v>0.1836995146100281</v>
       </c>
       <c r="D76">
-        <v>0.0179410650266157</v>
+        <v>0.03370569100647279</v>
       </c>
       <c r="E76">
-        <v>0.0109903018399527</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02197976209226574</v>
+      </c>
+      <c r="F76">
+        <v>-0.005272675278043919</v>
+      </c>
+      <c r="G76">
+        <v>-0.04622707337023491</v>
+      </c>
+      <c r="H76">
+        <v>-0.02341586849919652</v>
+      </c>
+      <c r="I76">
+        <v>0.06010660620715988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02139591674278307</v>
+        <v>-0.001422087681287959</v>
       </c>
       <c r="C77">
-        <v>-0.06835832758903994</v>
+        <v>0.1006654421687013</v>
       </c>
       <c r="D77">
-        <v>0.02895373223877378</v>
+        <v>-0.3172349003991939</v>
       </c>
       <c r="E77">
-        <v>0.2324801514900035</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.835305812813293</v>
+      </c>
+      <c r="F77">
+        <v>0.242367629179787</v>
+      </c>
+      <c r="G77">
+        <v>0.2383346159058871</v>
+      </c>
+      <c r="H77">
+        <v>0.1059850935702491</v>
+      </c>
+      <c r="I77">
+        <v>0.02988470539232431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0290759458040544</v>
+        <v>0.01461840497206651</v>
       </c>
       <c r="C78">
-        <v>-0.0643381289142157</v>
+        <v>0.08607130698574203</v>
       </c>
       <c r="D78">
-        <v>0.1515066417774516</v>
+        <v>-0.1255242995242964</v>
       </c>
       <c r="E78">
-        <v>0.04530240185866624</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06785293265688475</v>
+      </c>
+      <c r="F78">
+        <v>-0.04830845474826238</v>
+      </c>
+      <c r="G78">
+        <v>-0.03529401597198642</v>
+      </c>
+      <c r="H78">
+        <v>-0.01529033635084523</v>
+      </c>
+      <c r="I78">
+        <v>0.1194253171162733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.0992545952178677</v>
+        <v>0.03430314791235221</v>
       </c>
       <c r="C79">
-        <v>-0.1666507069851701</v>
+        <v>0.1875429523212392</v>
       </c>
       <c r="D79">
-        <v>-0.09044782735756199</v>
+        <v>0.0710992716711643</v>
       </c>
       <c r="E79">
-        <v>0.7969555471169154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05884246128978259</v>
+      </c>
+      <c r="F79">
+        <v>-0.7670400830297837</v>
+      </c>
+      <c r="G79">
+        <v>0.4850620127669558</v>
+      </c>
+      <c r="H79">
+        <v>0.1921358619228979</v>
+      </c>
+      <c r="I79">
+        <v>-0.1039897011683917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.006765486646538001</v>
+        <v>0.003916290839103623</v>
       </c>
       <c r="C80">
-        <v>-0.04488001091597963</v>
+        <v>0.04448375787066468</v>
       </c>
       <c r="D80">
-        <v>0.04907651542660545</v>
+        <v>-0.04127284201497442</v>
       </c>
       <c r="E80">
-        <v>-0.006874726162775227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04210206311649388</v>
+      </c>
+      <c r="F80">
+        <v>-0.007993920004034377</v>
+      </c>
+      <c r="G80">
+        <v>-0.02469106974973</v>
+      </c>
+      <c r="H80">
+        <v>-0.02056423907382203</v>
+      </c>
+      <c r="I80">
+        <v>0.07647004807772025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1231962934029251</v>
+        <v>0.04558752258648591</v>
       </c>
       <c r="C81">
-        <v>-0.1291042422799148</v>
+        <v>0.1665403530309637</v>
       </c>
       <c r="D81">
-        <v>-0.07284984902506879</v>
+        <v>0.07930206915437647</v>
       </c>
       <c r="E81">
-        <v>0.06547946627700474</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05180419403237146</v>
+      </c>
+      <c r="F81">
+        <v>-0.06150668524267617</v>
+      </c>
+      <c r="G81">
+        <v>-0.05987489705881773</v>
+      </c>
+      <c r="H81">
+        <v>-0.05551976961257982</v>
+      </c>
+      <c r="I81">
+        <v>0.08943564422003579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2615272140103997</v>
+        <v>0.09397439272001847</v>
       </c>
       <c r="C82">
-        <v>-0.2880298055145552</v>
+        <v>0.3286744652779471</v>
       </c>
       <c r="D82">
-        <v>-0.2044425566795901</v>
+        <v>0.2297978302939756</v>
       </c>
       <c r="E82">
-        <v>-0.1321918393959406</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05768706412077814</v>
+      </c>
+      <c r="F82">
+        <v>0.1048358543102367</v>
+      </c>
+      <c r="G82">
+        <v>-0.1162214475346502</v>
+      </c>
+      <c r="H82">
+        <v>-0.08469105314648166</v>
+      </c>
+      <c r="I82">
+        <v>0.04288960104448587</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.00474398978287908</v>
+        <v>-0.01080079686851579</v>
       </c>
       <c r="C83">
-        <v>-0.0519081365884947</v>
+        <v>0.02981853782619868</v>
       </c>
       <c r="D83">
-        <v>0.01182820164938589</v>
+        <v>-0.03596306767663748</v>
       </c>
       <c r="E83">
-        <v>0.05788853831553079</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07079640618617282</v>
+      </c>
+      <c r="F83">
+        <v>-0.07341136421114926</v>
+      </c>
+      <c r="G83">
+        <v>-0.08996653809879138</v>
+      </c>
+      <c r="H83">
+        <v>-0.04499312249747304</v>
+      </c>
+      <c r="I83">
+        <v>0.6147543776310944</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0006992379446579749</v>
+        <v>-0.002498286310906372</v>
       </c>
       <c r="C84">
-        <v>0.001693720047405375</v>
+        <v>0.01859477494336482</v>
       </c>
       <c r="D84">
-        <v>0.004511738999226082</v>
+        <v>-0.04707364267623093</v>
       </c>
       <c r="E84">
-        <v>0.0004966841909354644</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.0007833212042365771</v>
+      </c>
+      <c r="F84">
+        <v>-0.02992915409403758</v>
+      </c>
+      <c r="G84">
+        <v>-0.05142578094439604</v>
+      </c>
+      <c r="H84">
+        <v>-0.005774144751968809</v>
+      </c>
+      <c r="I84">
+        <v>-0.06418958214448432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1463756799225603</v>
+        <v>0.05907908777370387</v>
       </c>
       <c r="C85">
-        <v>-0.1335053193207403</v>
+        <v>0.1843030517902578</v>
       </c>
       <c r="D85">
-        <v>-0.03851545177318362</v>
+        <v>0.08859074243366823</v>
       </c>
       <c r="E85">
-        <v>0.02740719919354402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0002973551650777993</v>
+      </c>
+      <c r="F85">
+        <v>-0.07296472805372811</v>
+      </c>
+      <c r="G85">
+        <v>-0.01998408630669556</v>
+      </c>
+      <c r="H85">
+        <v>0.01038384127591977</v>
+      </c>
+      <c r="I85">
+        <v>0.05131911352879379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01412368141319499</v>
+        <v>0.01017289351228078</v>
       </c>
       <c r="C86">
-        <v>-0.01258034428582168</v>
+        <v>0.03153766384367327</v>
       </c>
       <c r="D86">
-        <v>0.07684417025377321</v>
+        <v>-0.1015078625177419</v>
       </c>
       <c r="E86">
-        <v>0.04975973041722856</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02264141792107611</v>
+      </c>
+      <c r="F86">
+        <v>0.0002349738469831218</v>
+      </c>
+      <c r="G86">
+        <v>0.006352245808662123</v>
+      </c>
+      <c r="H86">
+        <v>-0.02434836592953886</v>
+      </c>
+      <c r="I86">
+        <v>0.07071993527379822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02019920189219182</v>
+        <v>0.01012819612896388</v>
       </c>
       <c r="C87">
-        <v>-0.02306691947109889</v>
+        <v>0.05561640815375567</v>
       </c>
       <c r="D87">
-        <v>0.1326141850066306</v>
+        <v>-0.146874305819463</v>
       </c>
       <c r="E87">
-        <v>0.05244548883879735</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.009835198470675746</v>
+      </c>
+      <c r="F87">
+        <v>-0.0483778944454686</v>
+      </c>
+      <c r="G87">
+        <v>-0.06002160135414144</v>
+      </c>
+      <c r="H87">
+        <v>-0.02544132138072572</v>
+      </c>
+      <c r="I87">
+        <v>0.001645219786986218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05737402466766399</v>
+        <v>0.03307141490436271</v>
       </c>
       <c r="C88">
-        <v>-0.04592733179645467</v>
+        <v>0.06843330468562095</v>
       </c>
       <c r="D88">
-        <v>0.02761252533706461</v>
+        <v>-0.006183018137595968</v>
       </c>
       <c r="E88">
-        <v>0.02913045832456643</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02454580064488816</v>
+      </c>
+      <c r="F88">
+        <v>-0.01751291147254659</v>
+      </c>
+      <c r="G88">
+        <v>0.003386986516880921</v>
+      </c>
+      <c r="H88">
+        <v>-0.02204490247380023</v>
+      </c>
+      <c r="I88">
+        <v>0.006042394737033919</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3063041440425575</v>
+        <v>0.4100196184800232</v>
       </c>
       <c r="C89">
-        <v>0.338622732651688</v>
+        <v>-0.1570928979706208</v>
       </c>
       <c r="D89">
-        <v>0.01513891664880871</v>
+        <v>-0.03482159490670548</v>
       </c>
       <c r="E89">
-        <v>0.09097285693882032</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04879361063259982</v>
+      </c>
+      <c r="F89">
+        <v>-0.06558450271526862</v>
+      </c>
+      <c r="G89">
+        <v>-0.03309650546797293</v>
+      </c>
+      <c r="H89">
+        <v>-0.1223096747763991</v>
+      </c>
+      <c r="I89">
+        <v>-0.1598599572215442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2436261876698446</v>
+        <v>0.3175793461630301</v>
       </c>
       <c r="C90">
-        <v>0.251482885332177</v>
+        <v>-0.1096825697599859</v>
       </c>
       <c r="D90">
-        <v>0.03516940962736784</v>
+        <v>-0.03262180833742535</v>
       </c>
       <c r="E90">
-        <v>-0.005901845351631223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.009607784312500093</v>
+      </c>
+      <c r="F90">
+        <v>0.005583973562687992</v>
+      </c>
+      <c r="G90">
+        <v>-0.06596129654730762</v>
+      </c>
+      <c r="H90">
+        <v>0.02954362168196389</v>
+      </c>
+      <c r="I90">
+        <v>0.06952422714066671</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1619315481479917</v>
+        <v>0.06989424600937442</v>
       </c>
       <c r="C91">
-        <v>-0.1816734270384943</v>
+        <v>0.2118146579400841</v>
       </c>
       <c r="D91">
-        <v>-0.09593065344178912</v>
+        <v>0.1067715768492276</v>
       </c>
       <c r="E91">
-        <v>0.09535400415165708</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06214227282697143</v>
+      </c>
+      <c r="F91">
+        <v>-0.07201732422313716</v>
+      </c>
+      <c r="G91">
+        <v>-0.005510473012773049</v>
+      </c>
+      <c r="H91">
+        <v>0.0007911874772587627</v>
+      </c>
+      <c r="I91">
+        <v>0.09073617555485834</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2313121303162979</v>
+        <v>0.3373334799442537</v>
       </c>
       <c r="C92">
-        <v>0.2699094001878122</v>
+        <v>-0.1428758256343215</v>
       </c>
       <c r="D92">
-        <v>-0.05699905961342357</v>
+        <v>0.00375951678156886</v>
       </c>
       <c r="E92">
-        <v>0.05373556281484975</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06911578152251054</v>
+      </c>
+      <c r="F92">
+        <v>-0.02778768748617452</v>
+      </c>
+      <c r="G92">
+        <v>-0.02858514548974796</v>
+      </c>
+      <c r="H92">
+        <v>-0.01698961559626747</v>
+      </c>
+      <c r="I92">
+        <v>-0.2641865828892087</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2700363278730588</v>
+        <v>0.3352779413001703</v>
       </c>
       <c r="C93">
-        <v>0.2620640685413507</v>
+        <v>-0.1142002105049046</v>
       </c>
       <c r="D93">
-        <v>0.01478824574996612</v>
+        <v>0.0158102101790463</v>
       </c>
       <c r="E93">
-        <v>0.003145989086806366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02495235666603896</v>
+      </c>
+      <c r="F93">
+        <v>-0.00867457894022192</v>
+      </c>
+      <c r="G93">
+        <v>0.01689430865739067</v>
+      </c>
+      <c r="H93">
+        <v>-0.0008757451782550551</v>
+      </c>
+      <c r="I93">
+        <v>0.04038885523362646</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3067585853290317</v>
+        <v>0.134712905098728</v>
       </c>
       <c r="C94">
-        <v>-0.2616448876313575</v>
+        <v>0.3608265867411359</v>
       </c>
       <c r="D94">
-        <v>-0.3560390496035961</v>
+        <v>0.3431255436915112</v>
       </c>
       <c r="E94">
-        <v>-0.2008583897698679</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06004255348125255</v>
+      </c>
+      <c r="F94">
+        <v>0.09235674052597903</v>
+      </c>
+      <c r="G94">
+        <v>-0.2931970355129416</v>
+      </c>
+      <c r="H94">
+        <v>0.1033066432382027</v>
+      </c>
+      <c r="I94">
+        <v>-0.2952005514873544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01619186073979163</v>
+        <v>0.01756848608957432</v>
       </c>
       <c r="C95">
-        <v>-0.03782403270259614</v>
+        <v>0.0629656281228768</v>
       </c>
       <c r="D95">
-        <v>0.029204087802461</v>
+        <v>-0.1069503800137037</v>
       </c>
       <c r="E95">
-        <v>0.08641805445510213</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1559960058796468</v>
+      </c>
+      <c r="F95">
+        <v>0.02394513373003108</v>
+      </c>
+      <c r="G95">
+        <v>0.02753408863995175</v>
+      </c>
+      <c r="H95">
+        <v>-0.4170394350010933</v>
+      </c>
+      <c r="I95">
+        <v>-0.3767009874259198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0009802319628094316</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0004851079971100289</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0006715669164018115</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003185325293901602</v>
+      </c>
+      <c r="F97">
+        <v>0.00017390727523274</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004501506404888798</v>
+      </c>
+      <c r="H97">
+        <v>-0.003248334872045897</v>
+      </c>
+      <c r="I97">
+        <v>-0.002824789605985172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1477425160740335</v>
+        <v>0.111750565854431</v>
       </c>
       <c r="C98">
-        <v>-0.07817434192018366</v>
+        <v>0.1475776847095615</v>
       </c>
       <c r="D98">
-        <v>0.1472605821797489</v>
+        <v>-0.06893756308327441</v>
       </c>
       <c r="E98">
-        <v>-0.1997573467665895</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2065002940463644</v>
+      </c>
+      <c r="F98">
+        <v>0.241652350370818</v>
+      </c>
+      <c r="G98">
+        <v>0.2960978104055511</v>
+      </c>
+      <c r="H98">
+        <v>0.1220456635881988</v>
+      </c>
+      <c r="I98">
+        <v>0.003605613487020752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.000246724171305384</v>
+        <v>-0.001257641385704327</v>
       </c>
       <c r="C101">
-        <v>-0.02061450369557382</v>
+        <v>0.03059079162512944</v>
       </c>
       <c r="D101">
-        <v>0.09738825754061749</v>
+        <v>-0.09791427184006003</v>
       </c>
       <c r="E101">
-        <v>0.01444102532668812</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0560605841763036</v>
+      </c>
+      <c r="F101">
+        <v>-0.03773472722069559</v>
+      </c>
+      <c r="G101">
+        <v>-0.02372645647455749</v>
+      </c>
+      <c r="H101">
+        <v>-0.1279349622027557</v>
+      </c>
+      <c r="I101">
+        <v>-0.003337871517528892</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1104176827262271</v>
+        <v>0.0308296403092296</v>
       </c>
       <c r="C102">
-        <v>-0.1534470912689277</v>
+        <v>0.1519101442337803</v>
       </c>
       <c r="D102">
-        <v>-0.06837135018592883</v>
+        <v>0.09313147804233048</v>
       </c>
       <c r="E102">
-        <v>-0.04725611912115135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03411703566920963</v>
+      </c>
+      <c r="F102">
+        <v>0.05884847510074777</v>
+      </c>
+      <c r="G102">
+        <v>-0.009658251857010559</v>
+      </c>
+      <c r="H102">
+        <v>-0.05505525049471421</v>
+      </c>
+      <c r="I102">
+        <v>0.02722303950508445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
